--- a/Book 1.xlsx
+++ b/Book 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petronas-my.sharepoint.com/personal/ahmadirfan_harman_petronas_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petronas-my.sharepoint.com/personal/ahmadirfan_harman_petronas_com/Documents/Desktop/ListTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B9FA493-B151-4C8D-9424-2BD7DB7F2C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{6B9FA493-B151-4C8D-9424-2BD7DB7F2C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0EAB97C-24BC-4086-A30C-33AEED294DAA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{79EF5CC9-0958-4D39-96DD-A7C1CE8507F4}"/>
   </bookViews>
@@ -5964,7 +5964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5998,12 +5998,6 @@
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
     <font>
@@ -6146,9 +6140,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6696,8 +6690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3A3958-AACE-4585-9F2E-D59D3F8D54ED}">
   <dimension ref="A1:H1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="60" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13040,7 +13034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="131">
+    <row r="374" spans="1:8" ht="130.5">
       <c r="A374" s="3" t="s">
         <v>836</v>
       </c>
@@ -15148,7 +15142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="59">
+    <row r="515" spans="1:8" ht="58.5">
       <c r="A515" s="3" t="s">
         <v>356</v>
       </c>
@@ -20841,31 +20835,31 @@
     <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A968">
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A969">
-    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A970">
-    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A971">
-    <cfRule type="duplicateValues" dxfId="6" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A972">
-    <cfRule type="duplicateValues" dxfId="5" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A973">
-    <cfRule type="duplicateValues" dxfId="4" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A974">
-    <cfRule type="duplicateValues" dxfId="3" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A976:A1015">
-    <cfRule type="duplicateValues" dxfId="2" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A916 A918:A1015">
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
